--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-1.119053265332439</v>
+        <v>0.5556414999948345</v>
       </c>
       <c r="C2">
-        <v>0.5699467346675675</v>
+        <v>-0.3970860714793787</v>
       </c>
       <c r="D2">
-        <v>0.920943356034627</v>
+        <v>-0.6169817575957095</v>
       </c>
       <c r="E2">
-        <v>1.160946734667561</v>
+        <v>1.424879646726211</v>
       </c>
       <c r="F2">
-        <v>0.6719467346675714</v>
+        <v>1.650808050689989</v>
       </c>
       <c r="G2">
-        <v>0.2209467346675638</v>
+        <v>0.3735921536389384</v>
       </c>
       <c r="H2">
-        <v>0.3009467346675621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.6866231187695604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>1.689000000000007</v>
+        <v>0.7219671938530607</v>
       </c>
       <c r="C3">
-        <v>2.039996621367067</v>
+        <v>0.5020715077367299</v>
       </c>
       <c r="D3">
-        <v>2.280000000000001</v>
+        <v>2.54393291205865</v>
       </c>
       <c r="E3">
-        <v>1.791000000000011</v>
+        <v>2.769861316022428</v>
       </c>
       <c r="F3">
-        <v>1.340000000000003</v>
+        <v>1.492645418971378</v>
       </c>
       <c r="G3">
-        <v>1.420000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.805676384102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.3509966213670595</v>
+        <v>-1.186928492263277</v>
       </c>
       <c r="C4">
-        <v>0.590999999999994</v>
+        <v>0.8549329120586431</v>
       </c>
       <c r="D4">
-        <v>0.1020000000000039</v>
+        <v>1.080861316022421</v>
       </c>
       <c r="E4">
-        <v>-0.3490000000000037</v>
+        <v>-0.1963545810286291</v>
       </c>
       <c r="F4">
-        <v>-0.2690000000000054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1166763841019929</v>
+      </c>
+      <c r="G4">
+        <v>-0.3857387297557864</v>
+      </c>
+      <c r="H4">
+        <v>0.2658945176530381</v>
+      </c>
+      <c r="I4">
+        <v>0.0729948986110571</v>
+      </c>
+      <c r="J4">
+        <v>-0.4377465499738378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.2400033786329345</v>
+        <v>0.5039362906915836</v>
       </c>
       <c r="C5">
-        <v>-0.2489966213670556</v>
+        <v>0.7298646946553617</v>
       </c>
       <c r="D5">
-        <v>-0.6999966213670632</v>
+        <v>-0.5473512023956886</v>
       </c>
       <c r="E5">
-        <v>-0.6199966213670649</v>
+        <v>-0.2343202372650666</v>
       </c>
       <c r="F5">
-        <v>-0.5999966213670547</v>
+        <v>-0.7367353511228459</v>
       </c>
       <c r="G5">
-        <v>-0.4999966213670604</v>
+        <v>-0.08510210371402144</v>
       </c>
       <c r="H5">
-        <v>-0.5999966213670547</v>
+        <v>-0.2780017227560024</v>
       </c>
       <c r="I5">
-        <v>-0.8199982089966369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.7887431713408973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.4889999999999901</v>
+        <v>0.4898613160224272</v>
       </c>
       <c r="C6">
-        <v>-0.9399999999999977</v>
+        <v>-0.7873545810286231</v>
       </c>
       <c r="D6">
-        <v>-0.8599999999999994</v>
+        <v>-0.4743236158980011</v>
       </c>
       <c r="E6">
-        <v>-0.8399999999999892</v>
+        <v>-0.9767387297557804</v>
       </c>
       <c r="F6">
-        <v>-0.7399999999999949</v>
+        <v>-0.3251054823469559</v>
       </c>
       <c r="G6">
-        <v>-0.8399999999999892</v>
+        <v>-0.5180051013889369</v>
       </c>
       <c r="H6">
-        <v>-1.060001587629571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-1.028746549973832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.4510000000000076</v>
+        <v>-0.298354581028633</v>
       </c>
       <c r="C7">
-        <v>-0.3710000000000093</v>
+        <v>0.01467638410198902</v>
       </c>
       <c r="D7">
-        <v>-0.3509999999999991</v>
+        <v>-0.4877387297557902</v>
       </c>
       <c r="E7">
-        <v>-0.2510000000000048</v>
+        <v>0.1638945176530342</v>
       </c>
       <c r="F7">
-        <v>-0.3509999999999991</v>
+        <v>-0.02900510138894677</v>
       </c>
       <c r="G7">
-        <v>-0.5710015876295813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.5397465499738416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.07999999999999828</v>
+        <v>0.4656763841019966</v>
       </c>
       <c r="C8">
-        <v>0.1000000000000085</v>
+        <v>-0.03673872975578271</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000028</v>
+        <v>0.6148945176530418</v>
       </c>
       <c r="E8">
-        <v>0.1000000000000085</v>
+        <v>0.4219948986110608</v>
       </c>
       <c r="F8">
-        <v>-0.1200015876295737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.08874654997383413</v>
+      </c>
+      <c r="G8">
+        <v>0.116654182623364</v>
+      </c>
+      <c r="H8">
+        <v>-0.2898317593399469</v>
+      </c>
+      <c r="I8">
+        <v>0.1452723979283945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.02000000000001019</v>
+        <v>-0.116738729755781</v>
       </c>
       <c r="C9">
-        <v>0.1200000000000045</v>
+        <v>0.5348945176530435</v>
       </c>
       <c r="D9">
-        <v>0.02000000000001019</v>
+        <v>0.3419948986110625</v>
       </c>
       <c r="E9">
-        <v>-0.200001587629572</v>
+        <v>-0.1687465499738324</v>
       </c>
       <c r="F9">
-        <v>0.02000228506530273</v>
+        <v>0.03665418262336569</v>
       </c>
       <c r="G9">
-        <v>-0.08000344192429058</v>
+        <v>-0.3698317593399452</v>
       </c>
       <c r="H9">
-        <v>0.08000000000001246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.06527239792839619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.09999999999999432</v>
+        <v>0.5148945176530333</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3219948986110523</v>
       </c>
       <c r="D10">
-        <v>-0.2200015876295822</v>
+        <v>-0.1887465499738426</v>
       </c>
       <c r="E10">
-        <v>2.285065292539912E-06</v>
+        <v>0.0166541826233555</v>
       </c>
       <c r="F10">
-        <v>-0.1000034419243008</v>
+        <v>-0.3898317593399554</v>
       </c>
       <c r="G10">
-        <v>0.06000000000000227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.045272397928386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.09999999999999432</v>
+        <v>0.221994898611058</v>
       </c>
       <c r="C11">
-        <v>-0.3200015876295765</v>
+        <v>-0.2887465499738369</v>
       </c>
       <c r="D11">
-        <v>-0.09999771493470178</v>
+        <v>-0.08334581737663882</v>
       </c>
       <c r="E11">
-        <v>-0.2000034419242951</v>
+        <v>-0.4898317593399497</v>
       </c>
       <c r="F11">
-        <v>-0.03999999999999204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.05472760207160832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2200015876295822</v>
+        <v>-0.1887465499738426</v>
       </c>
       <c r="C12">
-        <v>2.285065292539912E-06</v>
+        <v>0.0166541826233555</v>
       </c>
       <c r="D12">
-        <v>-0.1000034419243008</v>
+        <v>-0.3898317593399554</v>
       </c>
       <c r="E12">
-        <v>0.06000000000000227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.045272397928386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.2200038726948747</v>
+        <v>0.2366557702529377</v>
       </c>
       <c r="C13">
-        <v>0.1199981457052814</v>
+        <v>-0.1698301717103732</v>
       </c>
       <c r="D13">
-        <v>0.2800015876295844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.2652739855579682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.1000057269895933</v>
+        <v>-0.3898340444052479</v>
       </c>
       <c r="C14">
-        <v>0.05999771493470973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.04527011286309346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.160003441924303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1452758398526868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5556414999948345</v>
+        <v>-1.119053265332439</v>
       </c>
       <c r="C2">
-        <v>-0.3970860714793787</v>
+        <v>0.5699467346675675</v>
       </c>
       <c r="D2">
-        <v>-0.6169817575957095</v>
+        <v>0.920943356034627</v>
       </c>
       <c r="E2">
-        <v>1.424879646726211</v>
+        <v>1.160946734667561</v>
       </c>
       <c r="F2">
-        <v>1.650808050689989</v>
+        <v>0.6719467346675714</v>
       </c>
       <c r="G2">
-        <v>0.3735921536389384</v>
+        <v>0.2209467346675638</v>
       </c>
       <c r="H2">
-        <v>0.6866231187695604</v>
+        <v>0.3009467346675621</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.7219671938530607</v>
+        <v>1.689000000000007</v>
       </c>
       <c r="C3">
-        <v>0.5020715077367299</v>
+        <v>2.039996621367067</v>
       </c>
       <c r="D3">
-        <v>2.54393291205865</v>
+        <v>2.280000000000001</v>
       </c>
       <c r="E3">
-        <v>2.769861316022428</v>
+        <v>1.791000000000011</v>
       </c>
       <c r="F3">
-        <v>1.492645418971378</v>
+        <v>1.340000000000003</v>
       </c>
       <c r="G3">
-        <v>1.805676384102</v>
+        <v>1.420000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-1.186928492263277</v>
+        <v>0.3509966213670595</v>
       </c>
       <c r="C4">
-        <v>0.8549329120586431</v>
+        <v>0.590999999999994</v>
       </c>
       <c r="D4">
-        <v>1.080861316022421</v>
+        <v>0.1020000000000039</v>
       </c>
       <c r="E4">
-        <v>-0.1963545810286291</v>
+        <v>-0.3490000000000037</v>
       </c>
       <c r="F4">
-        <v>0.1166763841019929</v>
+        <v>-0.2690000000000054</v>
       </c>
       <c r="G4">
-        <v>-0.3857387297557864</v>
+        <v>-0.2489999999999952</v>
       </c>
       <c r="H4">
-        <v>0.2658945176530381</v>
+        <v>-0.1490000000000009</v>
       </c>
       <c r="I4">
-        <v>0.0729948986110571</v>
+        <v>-0.2489999999999952</v>
       </c>
       <c r="J4">
-        <v>-0.4377465499738378</v>
+        <v>-0.4690015876295774</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.5039362906915836</v>
+        <v>0.2400033786329345</v>
       </c>
       <c r="C5">
-        <v>0.7298646946553617</v>
+        <v>-0.2489966213670556</v>
       </c>
       <c r="D5">
-        <v>-0.5473512023956886</v>
+        <v>-0.6999966213670632</v>
       </c>
       <c r="E5">
-        <v>-0.2343202372650666</v>
+        <v>-0.6199966213670649</v>
       </c>
       <c r="F5">
-        <v>-0.7367353511228459</v>
+        <v>-0.5999966213670547</v>
       </c>
       <c r="G5">
-        <v>-0.08510210371402144</v>
+        <v>-0.4999966213670604</v>
       </c>
       <c r="H5">
-        <v>-0.2780017227560024</v>
+        <v>-0.5999966213670547</v>
       </c>
       <c r="I5">
-        <v>-0.7887431713408973</v>
+        <v>-0.8199982089966369</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4898613160224272</v>
+        <v>-0.4889999999999901</v>
       </c>
       <c r="C6">
-        <v>-0.7873545810286231</v>
+        <v>-0.9399999999999977</v>
       </c>
       <c r="D6">
-        <v>-0.4743236158980011</v>
+        <v>-0.8599999999999994</v>
       </c>
       <c r="E6">
-        <v>-0.9767387297557804</v>
+        <v>-0.8399999999999892</v>
       </c>
       <c r="F6">
-        <v>-0.3251054823469559</v>
+        <v>-0.7399999999999949</v>
       </c>
       <c r="G6">
-        <v>-0.5180051013889369</v>
+        <v>-0.8399999999999892</v>
       </c>
       <c r="H6">
-        <v>-1.028746549973832</v>
+        <v>-1.060001587629571</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.298354581028633</v>
+        <v>-0.4510000000000076</v>
       </c>
       <c r="C7">
-        <v>0.01467638410198902</v>
+        <v>-0.3710000000000093</v>
       </c>
       <c r="D7">
-        <v>-0.4877387297557902</v>
+        <v>-0.3509999999999991</v>
       </c>
       <c r="E7">
-        <v>0.1638945176530342</v>
+        <v>-0.2510000000000048</v>
       </c>
       <c r="F7">
-        <v>-0.02900510138894677</v>
+        <v>-0.3509999999999991</v>
       </c>
       <c r="G7">
-        <v>-0.5397465499738416</v>
+        <v>-0.5710015876295813</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.4656763841019966</v>
+        <v>0.07999999999999828</v>
       </c>
       <c r="C8">
-        <v>-0.03673872975578271</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="D8">
-        <v>0.6148945176530418</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="E8">
-        <v>0.4219948986110608</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="F8">
-        <v>-0.08874654997383413</v>
+        <v>-0.1200015876295737</v>
       </c>
       <c r="G8">
-        <v>0.116654182623364</v>
+        <v>0.100002285065301</v>
       </c>
       <c r="H8">
-        <v>-0.2898317593399469</v>
+        <v>-3.441924292302279E-06</v>
       </c>
       <c r="I8">
-        <v>0.1452723979283945</v>
+        <v>0.1600000000000107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.116738729755781</v>
+        <v>0.02000000000001019</v>
       </c>
       <c r="C9">
-        <v>0.5348945176530435</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="D9">
-        <v>0.3419948986110625</v>
+        <v>0.02000000000001019</v>
       </c>
       <c r="E9">
-        <v>-0.1687465499738324</v>
+        <v>-0.200001587629572</v>
       </c>
       <c r="F9">
-        <v>0.03665418262336569</v>
+        <v>0.02000228506530273</v>
       </c>
       <c r="G9">
-        <v>-0.3698317593399452</v>
+        <v>-0.08000344192429058</v>
       </c>
       <c r="H9">
-        <v>0.06527239792839619</v>
+        <v>0.08000000000001246</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.5148945176530333</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C10">
-        <v>0.3219948986110523</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-0.1887465499738426</v>
+        <v>-0.2200015876295822</v>
       </c>
       <c r="E10">
-        <v>0.0166541826233555</v>
+        <v>2.285065292539912E-06</v>
       </c>
       <c r="F10">
-        <v>-0.3898317593399554</v>
+        <v>-0.1000034419243008</v>
       </c>
       <c r="G10">
-        <v>0.045272397928386</v>
+        <v>0.06000000000000227</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.221994898611058</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="C11">
-        <v>-0.2887465499738369</v>
+        <v>-0.3200015876295765</v>
       </c>
       <c r="D11">
-        <v>-0.08334581737663882</v>
+        <v>-0.09999771493470178</v>
       </c>
       <c r="E11">
-        <v>-0.4898317593399497</v>
+        <v>-0.2000034419242951</v>
       </c>
       <c r="F11">
-        <v>-0.05472760207160832</v>
+        <v>-0.03999999999999204</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.1887465499738426</v>
+        <v>-0.2200015876295822</v>
       </c>
       <c r="C12">
-        <v>0.0166541826233555</v>
+        <v>2.285065292539912E-06</v>
       </c>
       <c r="D12">
-        <v>-0.3898317593399554</v>
+        <v>-0.1000034419243008</v>
       </c>
       <c r="E12">
-        <v>0.045272397928386</v>
+        <v>0.06000000000000227</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.2366557702529377</v>
+        <v>0.2200038726948747</v>
       </c>
       <c r="C13">
-        <v>-0.1698301717103732</v>
+        <v>0.1199981457052814</v>
       </c>
       <c r="D13">
-        <v>0.2652739855579682</v>
+        <v>0.2800015876295844</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.3898340444052479</v>
+        <v>-0.1000057269895933</v>
       </c>
       <c r="C14">
-        <v>0.04527011286309346</v>
+        <v>0.05999771493470973</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.1452758398526868</v>
+        <v>0.160003441924303</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.2244535386947177</v>
+      </c>
+      <c r="C2">
+        <v>1.146360288871804</v>
+      </c>
+      <c r="D2">
+        <v>0.2830598293224256</v>
+      </c>
+      <c r="E2">
+        <v>0.8036082360892891</v>
+      </c>
+      <c r="F2">
+        <v>0.07775885004811295</v>
+      </c>
+      <c r="G2">
+        <v>-0.06033597070255325</v>
+      </c>
+      <c r="H2">
+        <v>1.423579478731483</v>
+      </c>
+      <c r="I2">
+        <v>0.7149590560906915</v>
+      </c>
+      <c r="J2">
+        <v>1.36081349821724</v>
+      </c>
+      <c r="K2">
+        <v>-0.06078080195678692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.05860629062770784</v>
+      </c>
+      <c r="C3">
+        <v>0.5791546973945714</v>
+      </c>
+      <c r="D3">
+        <v>-0.1466946886466048</v>
+      </c>
+      <c r="E3">
+        <v>-0.284789509397271</v>
+      </c>
+      <c r="F3">
+        <v>1.199125940036765</v>
+      </c>
+      <c r="G3">
+        <v>0.4905055173959738</v>
+      </c>
+      <c r="H3">
+        <v>1.136359959522522</v>
+      </c>
+      <c r="I3">
+        <v>-0.2852343406515047</v>
+      </c>
+      <c r="J3">
+        <v>-0.0852343406515047</v>
+      </c>
+      <c r="K3">
+        <v>-0.320153707863156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.2053009792743126</v>
+      </c>
+      <c r="C4">
+        <v>-0.3433958000249788</v>
+      </c>
+      <c r="D4">
+        <v>1.140519649409057</v>
+      </c>
+      <c r="E4">
+        <v>0.431899226768266</v>
+      </c>
+      <c r="F4">
+        <v>1.077753668894815</v>
+      </c>
+      <c r="G4">
+        <v>-0.3438406312792125</v>
+      </c>
+      <c r="H4">
+        <v>-0.1438406312792125</v>
+      </c>
+      <c r="I4">
+        <v>-0.3787599984908638</v>
+      </c>
+      <c r="J4">
+        <v>-0.1438406312792125</v>
+      </c>
+      <c r="K4">
+        <v>0.8534077655106103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1.34582062868337</v>
+      </c>
+      <c r="C5">
+        <v>0.6372002060425785</v>
+      </c>
+      <c r="D5">
+        <v>1.283054648169127</v>
+      </c>
+      <c r="E5">
+        <v>-0.1385396520048999</v>
+      </c>
+      <c r="F5">
+        <v>0.06146034799510008</v>
+      </c>
+      <c r="G5">
+        <v>-0.1734590192165512</v>
+      </c>
+      <c r="H5">
+        <v>0.06146034799510008</v>
+      </c>
+      <c r="I5">
+        <v>1.058708744784923</v>
+      </c>
+      <c r="J5">
+        <v>-0.3525765312796664</v>
+      </c>
+      <c r="K5">
+        <v>0.6627067470293327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.06276598051424287</v>
+      </c>
+      <c r="C6">
+        <v>-1.48436028068827</v>
+      </c>
+      <c r="D6">
+        <v>-1.28436028068827</v>
+      </c>
+      <c r="E6">
+        <v>-1.519279647899921</v>
+      </c>
+      <c r="F6">
+        <v>-1.28436028068827</v>
+      </c>
+      <c r="G6">
+        <v>-0.2871118838984472</v>
+      </c>
+      <c r="H6">
+        <v>-1.698397159963037</v>
+      </c>
+      <c r="I6">
+        <v>-0.6831138816540374</v>
+      </c>
+      <c r="J6">
+        <v>-1.28436028068827</v>
+      </c>
+      <c r="K6">
+        <v>-0.98436028068827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1.221594300174027</v>
+      </c>
+      <c r="C7">
+        <v>-1.456513667385678</v>
+      </c>
+      <c r="D7">
+        <v>-1.221594300174027</v>
+      </c>
+      <c r="E7">
+        <v>-0.2243459033842043</v>
+      </c>
+      <c r="F7">
+        <v>-1.635631179448794</v>
+      </c>
+      <c r="G7">
+        <v>-0.6203479011397945</v>
+      </c>
+      <c r="H7">
+        <v>-1.221594300174027</v>
+      </c>
+      <c r="I7">
+        <v>-0.9215943001740271</v>
+      </c>
+      <c r="J7">
+        <v>-1.121594300174027</v>
+      </c>
+      <c r="K7">
+        <v>-0.4812652580516641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.9972483967898228</v>
+      </c>
+      <c r="D8">
+        <v>-0.4140368792747665</v>
+      </c>
+      <c r="E8">
+        <v>0.6012463990342326</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
+        <v>0.7403290421223629</v>
+      </c>
+      <c r="J8">
+        <v>-0.4</v>
+      </c>
+      <c r="K8">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.4140368792747665</v>
+      </c>
+      <c r="C9">
+        <v>0.6012463990342326</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.7403290421223629</v>
+      </c>
+      <c r="H9">
+        <v>-0.4</v>
+      </c>
+      <c r="I9">
+        <v>-0.2</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9">
+        <v>0.6963573102740611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.4140368792747665</v>
+      </c>
+      <c r="C10">
+        <v>0.7140368792747666</v>
+      </c>
+      <c r="D10">
+        <v>0.5140368792747665</v>
+      </c>
+      <c r="E10">
+        <v>1.15436592139713</v>
+      </c>
+      <c r="F10">
+        <v>0.01403687927476649</v>
+      </c>
+      <c r="G10">
+        <v>0.2140368792747666</v>
+      </c>
+      <c r="H10">
+        <v>0.7140368792747666</v>
+      </c>
+      <c r="I10">
+        <v>1.110394189548828</v>
+      </c>
+      <c r="J10">
+        <v>0.1266847408016787</v>
+      </c>
+      <c r="K10">
+        <v>0.7087406530953331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.7403290421223629</v>
+      </c>
+      <c r="D11">
+        <v>-0.4</v>
+      </c>
+      <c r="E11">
+        <v>-0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>0.6963573102740611</v>
+      </c>
+      <c r="H11">
+        <v>-0.2873521384730878</v>
+      </c>
+      <c r="I11">
+        <v>0.2947037738205665</v>
+      </c>
+      <c r="J11">
+        <v>-0.3267133658511682</v>
+      </c>
+      <c r="K11">
+        <v>-0.3028875639548886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.5</v>
+      </c>
+      <c r="C12">
+        <v>-0.3</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.5963573102740611</v>
+      </c>
+      <c r="F12">
+        <v>-0.3873521384730879</v>
+      </c>
+      <c r="G12">
+        <v>0.1947037738205665</v>
+      </c>
+      <c r="H12">
+        <v>-0.4267133658511682</v>
+      </c>
+      <c r="I12">
+        <v>-0.4028875639548886</v>
+      </c>
+      <c r="J12">
+        <v>-0.3036537137213145</v>
+      </c>
+      <c r="K12">
+        <v>0.1673027473217871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.096357310274061</v>
+      </c>
+      <c r="D13">
+        <v>0.1126478615269122</v>
+      </c>
+      <c r="E13">
+        <v>0.6947037738205666</v>
+      </c>
+      <c r="F13">
+        <v>0.07328663414883185</v>
+      </c>
+      <c r="G13">
+        <v>0.09711243604511144</v>
+      </c>
+      <c r="H13">
+        <v>0.1963462862786856</v>
+      </c>
+      <c r="I13">
+        <v>0.6673027473217872</v>
+      </c>
+      <c r="J13">
+        <v>0.2225640081793643</v>
+      </c>
+      <c r="K13">
+        <v>0.3771488822430655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.5873521384730879</v>
+      </c>
+      <c r="C14">
+        <v>-0.005296226179433497</v>
+      </c>
+      <c r="D14">
+        <v>-0.6267133658511682</v>
+      </c>
+      <c r="E14">
+        <v>-0.6028875639548886</v>
+      </c>
+      <c r="F14">
+        <v>-0.5036537137213145</v>
+      </c>
+      <c r="G14">
+        <v>-0.03269725267821288</v>
+      </c>
+      <c r="H14">
+        <v>-0.4774359918206358</v>
+      </c>
+      <c r="I14">
+        <v>-0.3228511177569345</v>
+      </c>
+      <c r="J14">
+        <v>-0.321075791701611</v>
+      </c>
+      <c r="K14">
+        <v>-0.0946648784293643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.03936122737808034</v>
+      </c>
+      <c r="C15">
+        <v>-0.01553542548180076</v>
+      </c>
+      <c r="D15">
+        <v>0.08369842475177336</v>
+      </c>
+      <c r="E15">
+        <v>0.554654885794875</v>
+      </c>
+      <c r="F15">
+        <v>0.1099161466524521</v>
+      </c>
+      <c r="G15">
+        <v>0.2645010207161533</v>
+      </c>
+      <c r="H15">
+        <v>0.2662763467714768</v>
+      </c>
+      <c r="I15">
+        <v>0.4926872600437235</v>
+      </c>
+      <c r="J15">
+        <v>0.2895366769069482</v>
+      </c>
+      <c r="K15">
+        <v>0.531200215295101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.1230596521298537</v>
+      </c>
+      <c r="C16">
+        <v>0.5940161131729553</v>
+      </c>
+      <c r="D16">
+        <v>0.1492773740305324</v>
+      </c>
+      <c r="E16">
+        <v>0.3038622480942337</v>
+      </c>
+      <c r="F16">
+        <v>0.3056375741495572</v>
+      </c>
+      <c r="G16">
+        <v>0.5320484874218039</v>
+      </c>
+      <c r="H16">
+        <v>0.3288979042850286</v>
+      </c>
+      <c r="I16">
+        <v>0.5705614426731813</v>
+      </c>
+      <c r="J16">
+        <v>0.4240654252790535</v>
+      </c>
+      <c r="K16">
+        <v>-0.2112740870488494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.02621772190067873</v>
+      </c>
+      <c r="C17">
+        <v>0.18080259596438</v>
+      </c>
+      <c r="D17">
+        <v>0.1825779220197035</v>
+      </c>
+      <c r="E17">
+        <v>0.4089888352919502</v>
+      </c>
+      <c r="F17">
+        <v>0.2058382521551749</v>
+      </c>
+      <c r="G17">
+        <v>0.4475017905433276</v>
+      </c>
+      <c r="H17">
+        <v>0.3010057731491998</v>
+      </c>
+      <c r="I17">
+        <v>-0.3343337391787031</v>
+      </c>
+      <c r="J17">
+        <v>0.7389857269212712</v>
+      </c>
+      <c r="K17">
+        <v>0.5946070402164452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.1563602001190247</v>
+      </c>
+      <c r="C18">
+        <v>0.3827711133912715</v>
+      </c>
+      <c r="D18">
+        <v>0.1796205302544961</v>
+      </c>
+      <c r="E18">
+        <v>0.4212840686426489</v>
+      </c>
+      <c r="F18">
+        <v>0.2747880512485211</v>
+      </c>
+      <c r="G18">
+        <v>-0.3605514610793819</v>
+      </c>
+      <c r="H18">
+        <v>0.7127680050205925</v>
+      </c>
+      <c r="I18">
+        <v>0.5683893183157664</v>
+      </c>
+      <c r="J18">
+        <v>0.1342365866857307</v>
+      </c>
+      <c r="K18">
+        <v>0.2721151165631568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.02326033013547141</v>
+      </c>
+      <c r="C19">
+        <v>0.2649238685236242</v>
+      </c>
+      <c r="D19">
+        <v>0.1184278511294963</v>
+      </c>
+      <c r="E19">
+        <v>-0.5169116611984066</v>
+      </c>
+      <c r="F19">
+        <v>0.5564078049015677</v>
+      </c>
+      <c r="G19">
+        <v>0.4120291181967417</v>
+      </c>
+      <c r="H19">
+        <v>-0.02212361343329405</v>
+      </c>
+      <c r="I19">
+        <v>0.115754916444132</v>
+      </c>
+      <c r="J19">
+        <v>0.7210757917016111</v>
+      </c>
+      <c r="K19">
+        <v>0.2052738072813014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.09516752099402492</v>
+      </c>
+      <c r="C20">
+        <v>-0.5401719913338781</v>
+      </c>
+      <c r="D20">
+        <v>0.5331474747660963</v>
+      </c>
+      <c r="E20">
+        <v>0.3887687880612703</v>
+      </c>
+      <c r="F20">
+        <v>-0.04538394356876546</v>
+      </c>
+      <c r="G20">
+        <v>0.09249458630866064</v>
+      </c>
+      <c r="H20">
+        <v>0.6978154615661396</v>
+      </c>
+      <c r="I20">
+        <v>0.18201347714583</v>
+      </c>
+      <c r="J20">
+        <v>-0.8021845384338604</v>
+      </c>
+      <c r="K20">
+        <v>0.3037136582050977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.4379799537720714</v>
+      </c>
+      <c r="C21">
+        <v>0.2936012670672454</v>
+      </c>
+      <c r="D21">
+        <v>-0.1405514645627904</v>
+      </c>
+      <c r="E21">
+        <v>-0.002672934685364281</v>
+      </c>
+      <c r="F21">
+        <v>0.6026479405721147</v>
+      </c>
+      <c r="G21">
+        <v>0.0868459561518051</v>
+      </c>
+      <c r="H21">
+        <v>-0.8973520594278852</v>
+      </c>
+      <c r="I21">
+        <v>0.2085461372110728</v>
+      </c>
+      <c r="J21">
+        <v>-0.1297279148317614</v>
+      </c>
+      <c r="K21">
+        <v>0.2839465870216741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.5785314183348618</v>
+      </c>
+      <c r="C22">
+        <v>-0.4406528884574357</v>
+      </c>
+      <c r="D22">
+        <v>0.1646679868000433</v>
+      </c>
+      <c r="E22">
+        <v>-0.3511339976202663</v>
+      </c>
+      <c r="F22">
+        <v>-1.335332013199957</v>
+      </c>
+      <c r="G22">
+        <v>-0.2294338165609986</v>
+      </c>
+      <c r="H22">
+        <v>-0.5677078686038328</v>
+      </c>
+      <c r="I22">
+        <v>-0.1540333667503972</v>
+      </c>
+      <c r="J22">
+        <v>3.064667986800043</v>
+      </c>
+      <c r="K22">
+        <v>10.78173475240198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.2962742017526097</v>
+      </c>
+      <c r="C23">
+        <v>0.3090466735048693</v>
+      </c>
+      <c r="D23">
+        <v>-0.2067553109154403</v>
+      </c>
+      <c r="E23">
+        <v>-1.190953326495131</v>
+      </c>
+      <c r="F23">
+        <v>-0.08505512985617258</v>
+      </c>
+      <c r="G23">
+        <v>-0.4233291818990068</v>
+      </c>
+      <c r="H23">
+        <v>-0.009654680045571244</v>
+      </c>
+      <c r="I23">
+        <v>3.209046673504869</v>
+      </c>
+      <c r="J23">
+        <v>10.92611343910681</v>
+      </c>
+      <c r="K23">
+        <v>-7.240953326495131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.7431994051349051</v>
+      </c>
+      <c r="C24">
+        <v>0.2273974207145955</v>
+      </c>
+      <c r="D24">
+        <v>-0.7568005948650949</v>
+      </c>
+      <c r="E24">
+        <v>0.3490976017738632</v>
+      </c>
+      <c r="F24">
+        <v>0.010823549731029</v>
+      </c>
+      <c r="G24">
+        <v>0.4244980515844645</v>
+      </c>
+      <c r="H24">
+        <v>3.643199405134905</v>
+      </c>
+      <c r="I24">
+        <v>11.36026617073684</v>
+      </c>
+      <c r="J24">
+        <v>-6.806800594865095</v>
+      </c>
+      <c r="K24">
+        <v>1.243199405134902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.08951889083716938</v>
+      </c>
+      <c r="C25">
+        <v>-0.894679124742521</v>
+      </c>
+      <c r="D25">
+        <v>0.2112190718964371</v>
+      </c>
+      <c r="E25">
+        <v>-0.1270549801463971</v>
+      </c>
+      <c r="F25">
+        <v>0.2866195217070384</v>
+      </c>
+      <c r="G25">
+        <v>3.505320875257479</v>
+      </c>
+      <c r="H25">
+        <v>11.22238764085942</v>
+      </c>
+      <c r="I25">
+        <v>-6.944679124742521</v>
+      </c>
+      <c r="J25">
+        <v>1.105320875257476</v>
+      </c>
+      <c r="K25">
+        <v>2.705320875257485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-1.5</v>
+      </c>
+      <c r="C26">
+        <v>-0.3941018033610419</v>
+      </c>
+      <c r="D26">
+        <v>-0.7323758554038761</v>
+      </c>
+      <c r="E26">
+        <v>-0.3187013535504405</v>
+      </c>
+      <c r="F26">
+        <v>2.9</v>
+      </c>
+      <c r="G26">
+        <v>10.61706676560194</v>
+      </c>
+      <c r="H26">
+        <v>-7.55</v>
+      </c>
+      <c r="I26">
+        <v>0.4999999999999972</v>
+      </c>
+      <c r="J26">
+        <v>2.100000000000006</v>
+      </c>
+      <c r="K26">
+        <v>-3.780874220397794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.1217001810592677</v>
+      </c>
+      <c r="C27">
+        <v>-0.2165738709835665</v>
+      </c>
+      <c r="D27">
+        <v>0.197100630869869</v>
+      </c>
+      <c r="E27">
+        <v>3.41580198442031</v>
+      </c>
+      <c r="F27">
+        <v>11.13286875002225</v>
+      </c>
+      <c r="G27">
+        <v>-7.03419801557969</v>
+      </c>
+      <c r="H27">
+        <v>1.015801984420307</v>
+      </c>
+      <c r="I27">
+        <v>2.615801984420316</v>
+      </c>
+      <c r="J27">
+        <v>-3.265072235977484</v>
+      </c>
+      <c r="K27">
+        <v>-6.184198015579696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.7676241445961238</v>
+      </c>
+      <c r="C28">
+        <v>1.181298646449559</v>
+      </c>
+      <c r="D28">
+        <v>4.4</v>
+      </c>
+      <c r="E28">
+        <v>12.11706676560194</v>
+      </c>
+      <c r="F28">
+        <v>-6.05</v>
+      </c>
+      <c r="G28">
+        <v>1.999999999999997</v>
+      </c>
+      <c r="H28">
+        <v>3.600000000000006</v>
+      </c>
+      <c r="I28">
+        <v>-2.280874220397794</v>
+      </c>
+      <c r="J28">
+        <v>-5.200000000000006</v>
+      </c>
+      <c r="K28">
+        <v>2.299999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.07540044981060134</v>
+      </c>
+      <c r="C29">
+        <v>3.294101803361042</v>
+      </c>
+      <c r="D29">
+        <v>11.01116856896298</v>
+      </c>
+      <c r="E29">
+        <v>-7.155898196638958</v>
+      </c>
+      <c r="F29">
+        <v>0.8941018033610391</v>
+      </c>
+      <c r="G29">
+        <v>2.494101803361048</v>
+      </c>
+      <c r="H29">
+        <v>-3.386772417036752</v>
+      </c>
+      <c r="I29">
+        <v>-6.305898196638964</v>
+      </c>
+      <c r="J29">
+        <v>1.194101803361036</v>
+      </c>
+      <c r="K29">
+        <v>-0.3268449313065247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3.632375855403876</v>
+      </c>
+      <c r="C30">
+        <v>11.34944262100582</v>
+      </c>
+      <c r="D30">
+        <v>-6.817624144596124</v>
+      </c>
+      <c r="E30">
+        <v>1.232375855403873</v>
+      </c>
+      <c r="F30">
+        <v>2.832375855403882</v>
+      </c>
+      <c r="G30">
+        <v>-3.048498364993918</v>
+      </c>
+      <c r="H30">
+        <v>-5.96762414459613</v>
+      </c>
+      <c r="I30">
+        <v>1.53237585540387</v>
+      </c>
+      <c r="J30">
+        <v>0.01142912073630947</v>
+      </c>
+      <c r="K30">
+        <v>-1.10762414459613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>10.93576811915238</v>
+      </c>
+      <c r="C31">
+        <v>-7.231298646449559</v>
+      </c>
+      <c r="D31">
+        <v>0.8187013535504377</v>
+      </c>
+      <c r="E31">
+        <v>2.418701353550447</v>
+      </c>
+      <c r="F31">
+        <v>-3.462172866847353</v>
+      </c>
+      <c r="G31">
+        <v>-6.381298646449565</v>
+      </c>
+      <c r="H31">
+        <v>1.118701353550435</v>
+      </c>
+      <c r="I31">
+        <v>-0.402245381117126</v>
+      </c>
+      <c r="J31">
+        <v>-1.521298646449565</v>
+      </c>
+      <c r="K31">
+        <v>0.1677013535504415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-10.45</v>
+      </c>
+      <c r="C32">
+        <v>-2.400000000000003</v>
+      </c>
+      <c r="D32">
+        <v>-0.799999999999994</v>
+      </c>
+      <c r="E32">
+        <v>-6.680874220397794</v>
+      </c>
+      <c r="F32">
+        <v>-9.600000000000005</v>
+      </c>
+      <c r="G32">
+        <v>-2.100000000000006</v>
+      </c>
+      <c r="H32">
+        <v>-3.620946734667567</v>
+      </c>
+      <c r="I32">
+        <v>-4.740000000000006</v>
+      </c>
+      <c r="J32">
+        <v>-3.050999999999999</v>
+      </c>
+      <c r="K32">
+        <v>-2.70000337863294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>8.049999999999997</v>
+      </c>
+      <c r="C33">
+        <v>9.650000000000006</v>
+      </c>
+      <c r="D33">
+        <v>3.769125779602206</v>
+      </c>
+      <c r="E33">
+        <v>0.8499999999999943</v>
+      </c>
+      <c r="F33">
+        <v>8.349999999999994</v>
+      </c>
+      <c r="G33">
+        <v>6.829053265332433</v>
+      </c>
+      <c r="H33">
+        <v>5.709999999999994</v>
+      </c>
+      <c r="I33">
+        <v>7.399000000000001</v>
+      </c>
+      <c r="J33">
+        <v>7.74999662136706</v>
+      </c>
+      <c r="K33">
+        <v>7.989999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.600000000000009</v>
+      </c>
+      <c r="C34">
+        <v>-4.280874220397791</v>
+      </c>
+      <c r="D34">
+        <v>-7.200000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.2999999999999969</v>
+      </c>
+      <c r="F34">
+        <v>-1.220946734667564</v>
+      </c>
+      <c r="G34">
+        <v>-2.340000000000003</v>
+      </c>
+      <c r="H34">
+        <v>-0.6509999999999962</v>
+      </c>
+      <c r="I34">
+        <v>-0.3000033786329367</v>
+      </c>
+      <c r="J34">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="K34">
+        <v>-0.5489999999999924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-5.8808742203978</v>
+      </c>
+      <c r="C35">
+        <v>-8.800000000000011</v>
+      </c>
+      <c r="D35">
+        <v>-1.300000000000012</v>
+      </c>
+      <c r="E35">
+        <v>-2.820946734667573</v>
+      </c>
+      <c r="F35">
+        <v>-3.940000000000012</v>
+      </c>
+      <c r="G35">
+        <v>-2.251000000000005</v>
+      </c>
+      <c r="H35">
+        <v>-1.900003378632946</v>
+      </c>
+      <c r="I35">
+        <v>-1.660000000000011</v>
+      </c>
+      <c r="J35">
+        <v>-2.149000000000001</v>
+      </c>
+      <c r="K35">
+        <v>-2.600000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-2.919125779602212</v>
+      </c>
+      <c r="C36">
+        <v>4.580874220397788</v>
+      </c>
+      <c r="D36">
+        <v>3.059927485730227</v>
+      </c>
+      <c r="E36">
+        <v>1.940874220397788</v>
+      </c>
+      <c r="F36">
+        <v>3.629874220397795</v>
+      </c>
+      <c r="G36">
+        <v>3.980870841764854</v>
+      </c>
+      <c r="H36">
+        <v>4.220874220397789</v>
+      </c>
+      <c r="I36">
+        <v>3.731874220397799</v>
+      </c>
+      <c r="J36">
+        <v>3.280874220397791</v>
+      </c>
+      <c r="K36">
+        <v>3.360874220397789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>7.5</v>
+      </c>
+      <c r="C37">
+        <v>5.979053265332439</v>
+      </c>
+      <c r="D37">
+        <v>4.859999999999999</v>
+      </c>
+      <c r="E37">
+        <v>6.549000000000007</v>
+      </c>
+      <c r="F37">
+        <v>6.899996621367066</v>
+      </c>
+      <c r="G37">
+        <v>7.140000000000001</v>
+      </c>
+      <c r="H37">
+        <v>6.65100000000001</v>
+      </c>
+      <c r="I37">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="J37">
+        <v>6.280000000000001</v>
+      </c>
+      <c r="K37">
+        <v>6.300000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.520946734667561</v>
+      </c>
+      <c r="C38">
+        <v>-2.64</v>
+      </c>
+      <c r="D38">
+        <v>-0.9509999999999932</v>
+      </c>
+      <c r="E38">
+        <v>-0.6000033786329337</v>
+      </c>
+      <c r="F38">
+        <v>-0.3599999999999992</v>
+      </c>
+      <c r="G38">
+        <v>-0.8489999999999893</v>
+      </c>
+      <c r="H38">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="I38">
+        <v>-1.219999999999999</v>
+      </c>
+      <c r="J38">
+        <v>-1.199999999999988</v>
+      </c>
+      <c r="K38">
+        <v>-1.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-1.119053265332439</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.5699467346675675</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.920943356034627</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.160946734667561</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.6719467346675714</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.2209467346675638</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>0.3009467346675621</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.3209467346675723</v>
+      </c>
+      <c r="J39">
+        <v>0.4209467346675666</v>
+      </c>
+      <c r="K39">
+        <v>0.3209467346675723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>1.689000000000007</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>2.039996621367067</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>2.280000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>1.791000000000011</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>1.340000000000003</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>1.420000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>1.440000000000012</v>
+      </c>
+      <c r="I40">
+        <v>1.540000000000006</v>
+      </c>
+      <c r="J40">
+        <v>1.440000000000012</v>
+      </c>
+      <c r="K40">
+        <v>1.219998412370429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.3509966213670595</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.590999999999994</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.1020000000000039</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>-0.3490000000000037</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>-0.2690000000000054</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>-0.2489999999999952</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.1490000000000009</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>-0.2489999999999952</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.4690015876295774</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.2489977149347027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.2400033786329345</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-0.2489966213670556</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.6999966213670632</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>-0.6199966213670649</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-0.5999966213670547</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-0.4999966213670604</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-0.5999966213670547</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-0.8199982089966369</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-0.5999943363017621</v>
+      </c>
+      <c r="K42">
+        <v>-0.7000000632913554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.4889999999999901</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-0.9399999999999977</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.8599999999999994</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.8399999999999892</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.7399999999999949</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.8399999999999892</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-1.060001587629571</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-0.8399977149346967</v>
+      </c>
+      <c r="J43">
+        <v>-0.94000344192429</v>
+      </c>
+      <c r="K43">
+        <v>-0.7799999999999869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.4510000000000076</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>-0.3710000000000093</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>-0.3509999999999991</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.2510000000000048</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>-0.3509999999999991</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.5710015876295813</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.3509977149347066</v>
+      </c>
+      <c r="I44">
+        <v>-0.4510034419242999</v>
+      </c>
+      <c r="J44">
+        <v>-0.2909999999999968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.07999999999999828</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.1000000000000085</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.2000000000000028</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.1000000000000085</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.1200015876295737</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.100002285065301</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-3.441924292302279E-06</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.1600000000000107</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.02000000000001019</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.1200000000000045</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.02000000000001019</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.200001587629572</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>0.02000228506530273</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.08000344192429058</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.08000000000001246</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.09999999999999432</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.2200015876295822</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>2.285065292539912E-06</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.1000034419243008</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>0.06000000000000227</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.3200015876295765</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.09999771493470178</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.2000034419242951</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.03999999999999204</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2200015876295822</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>2.285065292539912E-06</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.1000034419243008</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>0.06000000000000227</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.2200038726948747</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.1199981457052814</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.2800015876295844</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.1000057269895933</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>0.05999771493470973</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>0.160003441924303</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.32000849711639</v>
+      </c>
+      <c r="C2">
         <v>0.2244535386947177</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.146360288871804</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2830598293224256</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8036082360892891</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.07775885004811295</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.06033597070255325</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.423579478731483</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.7149590560906915</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.36081349821724</v>
-      </c>
-      <c r="K2">
-        <v>-0.06078080195678692</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0.9219067501770866</v>
+      </c>
+      <c r="C3">
         <v>0.05860629062770784</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5791546973945714</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.1466946886466048</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.284789509397271</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.199125940036765</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4905055173959738</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.136359959522522</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.2852343406515047</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0852343406515047</v>
-      </c>
-      <c r="K3">
-        <v>-0.320153707863156</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.5205484067668635</v>
+      </c>
+      <c r="C4">
         <v>-0.2053009792743126</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-0.3433958000249788</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.140519649409057</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.431899226768266</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.077753668894815</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.3438406312792125</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.1438406312792125</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.3787599984908638</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.1438406312792125</v>
-      </c>
-      <c r="K4">
-        <v>0.8534077655106103</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.1380948207506662</v>
+      </c>
+      <c r="C5">
         <v>1.34582062868337</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.6372002060425785</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.283054648169127</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.1385396520048999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.06146034799510008</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.1734590192165512</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.06146034799510008</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.058708744784923</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.3525765312796664</v>
-      </c>
-      <c r="K5">
-        <v>0.6627067470293327</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.7086204226407915</v>
+      </c>
+      <c r="C6">
         <v>-0.06276598051424287</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.48436028068827</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1.28436028068827</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.519279647899921</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.28436028068827</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.2871118838984472</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-1.698397159963037</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.6831138816540374</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1.28436028068827</v>
-      </c>
-      <c r="K6">
-        <v>-0.98436028068827</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.421594300174027</v>
+      </c>
+      <c r="C7">
         <v>-1.221594300174027</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1.456513667385678</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.221594300174027</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.2243459033842043</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1.635631179448794</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6203479011397945</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.221594300174027</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.9215943001740271</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.121594300174027</v>
-      </c>
-      <c r="K7">
-        <v>-0.4812652580516641</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.2349193672116513</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.9972483967898228</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.4140368792747665</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.6012463990342326</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.7403290421223629</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.4</v>
-      </c>
-      <c r="K8">
-        <v>-0.2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.9972483967898228</v>
+      </c>
+      <c r="C9">
         <v>-0.4140368792747665</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6012463990342326</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.7403290421223629</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.3</v>
-      </c>
-      <c r="K9">
-        <v>0.6963573102740611</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>1.015283278308999</v>
+      </c>
+      <c r="C10">
         <v>0.4140368792747665</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.7140368792747666</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5140368792747665</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.15436592139713</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.01403687927476649</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.2140368792747666</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.7140368792747666</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.110394189548828</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1266847408016787</v>
-      </c>
-      <c r="K10">
-        <v>0.7087406530953331</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
         <v>0.1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.7403290421223629</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.6963573102740611</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.2873521384730878</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.2947037738205665</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.3267133658511682</v>
-      </c>
-      <c r="K11">
-        <v>-0.3028875639548886</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.640329042122363</v>
+      </c>
+      <c r="C12">
         <v>-0.5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.5963573102740611</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.3873521384730879</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1947037738205665</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4267133658511682</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.4028875639548886</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.3036537137213145</v>
-      </c>
-      <c r="K12">
-        <v>0.1673027473217871</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="C13">
         <v>0.7000000000000001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.096357310274061</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.1126478615269122</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.6947037738205666</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.07328663414883185</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.09711243604511144</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.1963462862786856</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.6673027473217872</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.2225640081793643</v>
-      </c>
-      <c r="K13">
-        <v>0.3771488822430655</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.3963573102740611</v>
+      </c>
+      <c r="C14">
         <v>-0.5873521384730879</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.005296226179433497</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.6267133658511682</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.6028875639548886</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.5036537137213145</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.03269725267821288</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.4774359918206358</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.3228511177569345</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.321075791701611</v>
-      </c>
-      <c r="K14">
-        <v>-0.0946648784293643</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.5820559122936544</v>
+      </c>
+      <c r="C15">
         <v>-0.03936122737808034</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.01553542548180076</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.08369842475177336</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.554654885794875</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.1099161466524521</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.2645010207161533</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.2662763467714768</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.4926872600437235</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2895366769069482</v>
-      </c>
-      <c r="K15">
-        <v>0.531200215295101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.02382580189627959</v>
+      </c>
+      <c r="C16">
         <v>0.1230596521298537</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.5940161131729553</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1492773740305324</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.3038622480942337</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3056375741495572</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.5320484874218039</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.3288979042850286</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.5705614426731813</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.4240654252790535</v>
-      </c>
-      <c r="K16">
-        <v>-0.2112740870488494</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.4709564610431016</v>
+      </c>
+      <c r="C17">
         <v>0.02621772190067873</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.18080259596438</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1825779220197035</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.4089888352919502</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.2058382521551749</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.4475017905433276</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.3010057731491998</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.3343337391787031</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.7389857269212712</v>
-      </c>
-      <c r="K17">
-        <v>0.5946070402164452</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.1545848740637012</v>
+      </c>
+      <c r="C18">
         <v>0.1563602001190247</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.3827711133912715</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1796205302544961</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.4212840686426489</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2747880512485211</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.3605514610793819</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.7127680050205925</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.5683893183157664</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.1342365866857307</v>
-      </c>
-      <c r="K18">
-        <v>0.2721151165631568</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.2264109132722467</v>
+      </c>
+      <c r="C19">
         <v>0.02326033013547141</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.2649238685236242</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.1184278511294963</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.5169116611984066</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.5564078049015677</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.4120291181967417</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-0.02212361343329405</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.115754916444132</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.7210757917016111</v>
-      </c>
-      <c r="K19">
-        <v>0.2052738072813014</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.2416635383881527</v>
+      </c>
+      <c r="C20">
         <v>0.09516752099402492</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.5401719913338781</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.5331474747660963</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3887687880612703</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.04538394356876546</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.09249458630866064</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.6978154615661396</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.18201347714583</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.8021845384338604</v>
-      </c>
-      <c r="K20">
-        <v>0.3037136582050977</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.6353395123279029</v>
+      </c>
+      <c r="C21">
         <v>0.4379799537720714</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2936012670672454</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.1405514645627904</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.002672934685364281</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.6026479405721147</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.0868459561518051</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.8973520594278852</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2085461372110728</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-0.1297279148317614</v>
-      </c>
-      <c r="K21">
-        <v>0.2839465870216741</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.144378686704826</v>
+      </c>
+      <c r="C22">
         <v>-0.5785314183348618</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.4406528884574357</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1646679868000433</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-0.3511339976202663</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-1.335332013199957</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.2294338165609986</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-0.5677078686038328</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.1540333667503972</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3.064667986800043</v>
-      </c>
-      <c r="K22">
-        <v>10.78173475240198</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.4341527316300358</v>
+      </c>
+      <c r="C23">
         <v>-0.2962742017526097</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3090466735048693</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-0.2067553109154403</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-1.190953326495131</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.08505512985617258</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.4233291818990068</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.009654680045571244</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.209046673504869</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10.92611343910681</v>
-      </c>
-      <c r="K23">
-        <v>-7.240953326495131</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.1378785298774261</v>
+      </c>
+      <c r="C24">
         <v>0.7431994051349051</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.2273974207145955</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-0.7568005948650949</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.3490976017738632</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.010823549731029</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.4244980515844645</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.643199405134905</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11.36026617073684</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6.806800594865095</v>
-      </c>
-      <c r="K24">
-        <v>1.243199405134902</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.605320875257479</v>
+      </c>
+      <c r="C25">
         <v>0.08951889083716938</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-0.894679124742521</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.2112190718964371</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-0.1270549801463971</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.2866195217070384</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.505320875257479</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11.22238764085942</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.944679124742521</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.105320875257476</v>
-      </c>
-      <c r="K25">
-        <v>2.705320875257485</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>-0.5158019844203096</v>
+      </c>
+      <c r="C26">
         <v>-1.5</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.3941018033610419</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.7323758554038761</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.3187013535504405</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10.61706676560194</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-7.55</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.4999999999999972</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.100000000000006</v>
-      </c>
-      <c r="K26">
-        <v>-3.780874220397794</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.9841980155796903</v>
+      </c>
+      <c r="C27">
         <v>0.1217001810592677</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-0.2165738709835665</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.197100630869869</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.41580198442031</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>11.13286875002225</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-7.03419801557969</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.015801984420307</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.615801984420316</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-3.265072235977484</v>
-      </c>
-      <c r="K27">
-        <v>-6.184198015579696</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>1.105898196638958</v>
+      </c>
+      <c r="C28">
         <v>0.7676241445961238</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.181298646449559</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.4</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>12.11706676560194</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-6.05</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.999999999999997</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3.600000000000006</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-2.280874220397794</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-5.200000000000006</v>
-      </c>
-      <c r="K28">
-        <v>2.299999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.3382740520428342</v>
+      </c>
+      <c r="C29">
         <v>0.07540044981060134</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3.294101803361042</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11.01116856896298</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-7.155898196638958</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.8941018033610391</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.494101803361048</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-3.386772417036752</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-6.305898196638964</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.194101803361036</v>
-      </c>
-      <c r="K29">
-        <v>-0.3268449313065247</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.4136745018534355</v>
+      </c>
+      <c r="C30">
         <v>3.632375855403876</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11.34944262100582</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-6.817624144596124</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.232375855403873</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.832375855403882</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-3.048498364993918</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-5.96762414459613</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.53237585540387</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.01142912073630947</v>
-      </c>
-      <c r="K30">
-        <v>-1.10762414459613</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>3.218701353550441</v>
+      </c>
+      <c r="C31">
         <v>10.93576811915238</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-7.231298646449559</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.8187013535504377</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.418701353550447</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-3.462172866847353</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-6.381298646449565</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.118701353550435</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.402245381117126</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1.521298646449565</v>
-      </c>
-      <c r="K31">
-        <v>0.1677013535504415</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>7.717066765601939</v>
+      </c>
+      <c r="C32">
         <v>-10.45</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-2.400000000000003</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.799999999999994</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-6.680874220397794</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-9.600000000000005</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-2.100000000000006</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-3.620946734667567</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-4.740000000000006</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-3.050999999999999</v>
-      </c>
-      <c r="K32">
-        <v>-2.70000337863294</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>8.049999999999997</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>9.650000000000006</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3.769125779602206</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.8499999999999943</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8.349999999999994</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6.829053265332433</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5.709999999999994</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7.399000000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7.74999662136706</v>
-      </c>
-      <c r="K33">
-        <v>7.989999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1.600000000000009</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-4.280874220397791</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-7.200000000000003</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2999999999999969</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.220946734667564</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-2.340000000000003</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.6509999999999962</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.3000033786329367</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.06000000000000227</v>
-      </c>
-      <c r="K34">
-        <v>-0.5489999999999924</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-5.8808742203978</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-8.800000000000011</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1.300000000000012</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-2.820946734667573</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-3.940000000000012</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-2.251000000000005</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-1.900003378632946</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-1.660000000000011</v>
-      </c>
-      <c r="J35">
-        <v>-2.149000000000001</v>
-      </c>
-      <c r="K35">
-        <v>-2.600000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>-2.919125779602212</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4.580874220397788</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>3.059927485730227</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.940874220397788</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3.629874220397795</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.980870841764854</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.220874220397789</v>
-      </c>
-      <c r="I36">
-        <v>3.731874220397799</v>
-      </c>
-      <c r="J36">
-        <v>3.280874220397791</v>
-      </c>
-      <c r="K36">
-        <v>3.360874220397789</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>7.5</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5.979053265332439</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>4.859999999999999</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6.549000000000007</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>6.899996621367066</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>7.140000000000001</v>
-      </c>
-      <c r="H37">
-        <v>6.65100000000001</v>
-      </c>
-      <c r="I37">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="J37">
-        <v>6.280000000000001</v>
-      </c>
-      <c r="K37">
-        <v>6.300000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>-1.520946734667561</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-2.64</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.9509999999999932</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.6000033786329337</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.3599999999999992</v>
-      </c>
-      <c r="G38">
-        <v>-0.8489999999999893</v>
-      </c>
-      <c r="H38">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="I38">
-        <v>-1.219999999999999</v>
-      </c>
-      <c r="J38">
-        <v>-1.199999999999988</v>
-      </c>
-      <c r="K38">
-        <v>-1.099999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>-1.119053265332439</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.5699467346675675</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.920943356034627</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.160946734667561</v>
-      </c>
-      <c r="F39">
-        <v>0.6719467346675714</v>
-      </c>
-      <c r="G39">
-        <v>0.2209467346675638</v>
-      </c>
-      <c r="H39">
-        <v>0.3009467346675621</v>
-      </c>
-      <c r="I39">
-        <v>0.3209467346675723</v>
-      </c>
-      <c r="J39">
-        <v>0.4209467346675666</v>
-      </c>
-      <c r="K39">
-        <v>0.3209467346675723</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1.689000000000007</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>2.039996621367067</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>2.280000000000001</v>
-      </c>
-      <c r="E40">
-        <v>1.791000000000011</v>
-      </c>
-      <c r="F40">
-        <v>1.340000000000003</v>
-      </c>
-      <c r="G40">
-        <v>1.420000000000001</v>
-      </c>
-      <c r="H40">
-        <v>1.440000000000012</v>
-      </c>
-      <c r="I40">
-        <v>1.540000000000006</v>
-      </c>
-      <c r="J40">
-        <v>1.440000000000012</v>
-      </c>
-      <c r="K40">
-        <v>1.219998412370429</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.3509966213670595</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.590999999999994</v>
-      </c>
-      <c r="D41">
-        <v>0.1020000000000039</v>
-      </c>
-      <c r="E41">
-        <v>-0.3490000000000037</v>
-      </c>
-      <c r="F41">
-        <v>-0.2690000000000054</v>
-      </c>
-      <c r="G41">
-        <v>-0.2489999999999952</v>
-      </c>
-      <c r="H41">
-        <v>-0.1490000000000009</v>
-      </c>
-      <c r="I41">
-        <v>-0.2489999999999952</v>
-      </c>
-      <c r="J41">
-        <v>-0.4690015876295774</v>
-      </c>
-      <c r="K41">
-        <v>-0.2489977149347027</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0.2400033786329345</v>
-      </c>
-      <c r="C42">
-        <v>-0.2489966213670556</v>
-      </c>
-      <c r="D42">
-        <v>-0.6999966213670632</v>
-      </c>
-      <c r="E42">
-        <v>-0.6199966213670649</v>
-      </c>
-      <c r="F42">
-        <v>-0.5999966213670547</v>
-      </c>
-      <c r="G42">
-        <v>-0.4999966213670604</v>
-      </c>
-      <c r="H42">
-        <v>-0.5999966213670547</v>
-      </c>
-      <c r="I42">
-        <v>-0.8199982089966369</v>
-      </c>
-      <c r="J42">
-        <v>-0.5999943363017621</v>
-      </c>
-      <c r="K42">
-        <v>-0.7000000632913554</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.4889999999999901</v>
-      </c>
-      <c r="C43">
-        <v>-0.9399999999999977</v>
-      </c>
-      <c r="D43">
-        <v>-0.8599999999999994</v>
-      </c>
-      <c r="E43">
-        <v>-0.8399999999999892</v>
-      </c>
-      <c r="F43">
-        <v>-0.7399999999999949</v>
-      </c>
-      <c r="G43">
-        <v>-0.8399999999999892</v>
-      </c>
-      <c r="H43">
-        <v>-1.060001587629571</v>
-      </c>
-      <c r="I43">
-        <v>-0.8399977149346967</v>
-      </c>
-      <c r="J43">
-        <v>-0.94000344192429</v>
-      </c>
-      <c r="K43">
-        <v>-0.7799999999999869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.4510000000000076</v>
-      </c>
-      <c r="C44">
-        <v>-0.3710000000000093</v>
-      </c>
-      <c r="D44">
-        <v>-0.3509999999999991</v>
-      </c>
-      <c r="E44">
-        <v>-0.2510000000000048</v>
-      </c>
-      <c r="F44">
-        <v>-0.3509999999999991</v>
-      </c>
-      <c r="G44">
-        <v>-0.5710015876295813</v>
-      </c>
-      <c r="H44">
-        <v>-0.3509977149347066</v>
-      </c>
-      <c r="I44">
-        <v>-0.4510034419242999</v>
-      </c>
-      <c r="J44">
-        <v>-0.2909999999999968</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.07999999999999828</v>
-      </c>
-      <c r="C45">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="D45">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="E45">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="F45">
-        <v>-0.1200015876295737</v>
-      </c>
-      <c r="G45">
-        <v>0.100002285065301</v>
-      </c>
-      <c r="H45">
-        <v>-3.441924292302279E-06</v>
-      </c>
-      <c r="I45">
-        <v>0.1600000000000107</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.02000000000001019</v>
-      </c>
-      <c r="C46">
-        <v>0.1200000000000045</v>
-      </c>
-      <c r="D46">
-        <v>0.02000000000001019</v>
-      </c>
-      <c r="E46">
-        <v>-0.200001587629572</v>
-      </c>
-      <c r="F46">
-        <v>0.02000228506530273</v>
-      </c>
-      <c r="G46">
-        <v>-0.08000344192429058</v>
-      </c>
-      <c r="H46">
-        <v>0.08000000000001246</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>-0.2200015876295822</v>
-      </c>
-      <c r="E47">
-        <v>2.285065292539912E-06</v>
-      </c>
-      <c r="F47">
-        <v>-0.1000034419243008</v>
-      </c>
-      <c r="G47">
-        <v>0.06000000000000227</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="C48">
-        <v>-0.3200015876295765</v>
-      </c>
-      <c r="D48">
-        <v>-0.09999771493470178</v>
-      </c>
-      <c r="E48">
-        <v>-0.2000034419242951</v>
-      </c>
-      <c r="F48">
-        <v>-0.03999999999999204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2200015876295822</v>
-      </c>
-      <c r="C49">
-        <v>2.285065292539912E-06</v>
-      </c>
-      <c r="D49">
-        <v>-0.1000034419243008</v>
-      </c>
-      <c r="E49">
-        <v>0.06000000000000227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.2200038726948747</v>
-      </c>
-      <c r="C50">
-        <v>0.1199981457052814</v>
-      </c>
-      <c r="D50">
-        <v>0.2800015876295844</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.1000057269895933</v>
-      </c>
-      <c r="C51">
-        <v>0.05999771493470973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>0.160003441924303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>11.36026617073684</v>
       </c>
       <c r="K24">
-        <v>-6.806800594865095</v>
+        <v>-10.37282494035166</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>11.22238764085942</v>
       </c>
       <c r="J25">
-        <v>-6.944679124742521</v>
+        <v>-10.51070347022909</v>
       </c>
       <c r="K25">
-        <v>1.105320875257476</v>
+        <v>3.635113502123218</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>10.61706676560194</v>
       </c>
       <c r="I26">
-        <v>-7.55</v>
+        <v>-11.11602434548657</v>
       </c>
       <c r="J26">
-        <v>0.4999999999999972</v>
+        <v>3.029792626865739</v>
       </c>
       <c r="K26">
-        <v>2.100000000000006</v>
+        <v>5.056794673020033</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>11.13286875002225</v>
       </c>
       <c r="H27">
-        <v>-7.03419801557969</v>
+        <v>-10.60022236106626</v>
       </c>
       <c r="I27">
-        <v>1.015801984420307</v>
+        <v>3.545594611286049</v>
       </c>
       <c r="J27">
-        <v>2.615801984420316</v>
+        <v>5.572596657440343</v>
       </c>
       <c r="K27">
-        <v>-3.265072235977484</v>
+        <v>-3.017090008061245</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>12.11706676560194</v>
       </c>
       <c r="G28">
-        <v>-6.05</v>
+        <v>-9.61602434548657</v>
       </c>
       <c r="H28">
-        <v>1.999999999999997</v>
+        <v>4.529792626865739</v>
       </c>
       <c r="I28">
-        <v>3.600000000000006</v>
+        <v>6.556794673020033</v>
       </c>
       <c r="J28">
-        <v>-2.280874220397794</v>
+        <v>-2.032891992481555</v>
       </c>
       <c r="K28">
-        <v>-5.200000000000006</v>
+        <v>-5.007106464233121</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>11.01116856896298</v>
       </c>
       <c r="F29">
-        <v>-7.155898196638958</v>
+        <v>-10.72192254212553</v>
       </c>
       <c r="G29">
-        <v>0.8941018033610391</v>
+        <v>3.423894430226781</v>
       </c>
       <c r="H29">
-        <v>2.494101803361048</v>
+        <v>5.450896476381075</v>
       </c>
       <c r="I29">
-        <v>-3.386772417036752</v>
+        <v>-3.138790189120513</v>
       </c>
       <c r="J29">
-        <v>-6.305898196638964</v>
+        <v>-6.113004660872079</v>
       </c>
       <c r="K29">
-        <v>1.194101803361036</v>
+        <v>1.844819121192472</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>11.34944262100582</v>
       </c>
       <c r="E30">
-        <v>-6.817624144596124</v>
+        <v>-10.38364849008269</v>
       </c>
       <c r="F30">
-        <v>1.232375855403873</v>
+        <v>3.762168482269615</v>
       </c>
       <c r="G30">
-        <v>2.832375855403882</v>
+        <v>5.789170528423909</v>
       </c>
       <c r="H30">
-        <v>-3.048498364993918</v>
+        <v>-2.800516137077679</v>
       </c>
       <c r="I30">
-        <v>-5.96762414459613</v>
+        <v>-5.774730608829245</v>
       </c>
       <c r="J30">
-        <v>1.53237585540387</v>
+        <v>2.183093173235306</v>
       </c>
       <c r="K30">
-        <v>0.01142912073630947</v>
+        <v>0.567070620731144</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>10.93576811915238</v>
       </c>
       <c r="D31">
-        <v>-7.231298646449559</v>
+        <v>-10.79732299193613</v>
       </c>
       <c r="E31">
-        <v>0.8187013535504377</v>
+        <v>3.34849398041618</v>
       </c>
       <c r="F31">
-        <v>2.418701353550447</v>
+        <v>5.375496026570474</v>
       </c>
       <c r="G31">
-        <v>-3.462172866847353</v>
+        <v>-3.214190638931115</v>
       </c>
       <c r="H31">
-        <v>-6.381298646449565</v>
+        <v>-6.18840511068268</v>
       </c>
       <c r="I31">
-        <v>1.118701353550435</v>
+        <v>1.76941867138187</v>
       </c>
       <c r="J31">
-        <v>-0.402245381117126</v>
+        <v>0.1533961188777085</v>
       </c>
       <c r="K31">
-        <v>-1.521298646449565</v>
+        <v>-0.7993314525965047</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>7.717066765601939</v>
       </c>
       <c r="C32">
-        <v>-10.45</v>
+        <v>-14.01602434548657</v>
       </c>
       <c r="D32">
-        <v>-2.400000000000003</v>
+        <v>0.129792626865739</v>
       </c>
       <c r="E32">
-        <v>-0.799999999999994</v>
+        <v>2.156794673020033</v>
       </c>
       <c r="F32">
-        <v>-6.680874220397794</v>
+        <v>-6.432891992481555</v>
       </c>
       <c r="G32">
-        <v>-9.600000000000005</v>
+        <v>-9.40710646423312</v>
       </c>
       <c r="H32">
-        <v>-2.100000000000006</v>
+        <v>-1.44928268216857</v>
       </c>
       <c r="I32">
-        <v>-3.620946734667567</v>
+        <v>-3.065305234672732</v>
       </c>
       <c r="J32">
-        <v>-4.740000000000006</v>
+        <v>-4.018032806146945</v>
       </c>
       <c r="K32">
-        <v>-3.050999999999999</v>
+        <v>-4.237928492263277</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-21.73309111108851</v>
       </c>
       <c r="C33">
-        <v>8.049999999999997</v>
+        <v>-7.5872741387362</v>
       </c>
       <c r="D33">
-        <v>9.650000000000006</v>
+        <v>-5.560272092581906</v>
       </c>
       <c r="E33">
-        <v>3.769125779602206</v>
+        <v>-14.14995875808349</v>
       </c>
       <c r="F33">
-        <v>0.8499999999999943</v>
+        <v>-17.12417322983506</v>
       </c>
       <c r="G33">
-        <v>8.349999999999994</v>
+        <v>-9.166349447770509</v>
       </c>
       <c r="H33">
-        <v>6.829053265332433</v>
+        <v>-10.78237200027467</v>
       </c>
       <c r="I33">
-        <v>5.709999999999994</v>
+        <v>-11.73509957174888</v>
       </c>
       <c r="J33">
-        <v>7.399000000000001</v>
+        <v>-11.95499525786522</v>
       </c>
       <c r="K33">
-        <v>7.74999662136706</v>
+        <v>-9.913133853543295</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>14.14581697235231</v>
       </c>
       <c r="C34">
-        <v>1.600000000000009</v>
+        <v>16.1728190185066</v>
       </c>
       <c r="D34">
-        <v>-4.280874220397791</v>
+        <v>7.583132353005015</v>
       </c>
       <c r="E34">
-        <v>-7.200000000000003</v>
+        <v>4.608917881253449</v>
       </c>
       <c r="F34">
-        <v>0.2999999999999969</v>
+        <v>12.566741663318</v>
       </c>
       <c r="G34">
-        <v>-1.220946734667564</v>
+        <v>10.95071911081384</v>
       </c>
       <c r="H34">
-        <v>-2.340000000000003</v>
+        <v>9.997991539339624</v>
       </c>
       <c r="I34">
-        <v>-0.6509999999999962</v>
+        <v>9.778095853223293</v>
       </c>
       <c r="J34">
-        <v>-0.3000033786329367</v>
+        <v>11.81995725754521</v>
       </c>
       <c r="K34">
-        <v>-0.06000000000000227</v>
+        <v>12.04588566150899</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2.027002046154294</v>
       </c>
       <c r="C35">
-        <v>-5.8808742203978</v>
+        <v>-6.562684619347294</v>
       </c>
       <c r="D35">
-        <v>-8.800000000000011</v>
+        <v>-9.53689909109886</v>
       </c>
       <c r="E35">
-        <v>-1.300000000000012</v>
+        <v>-1.579075309034309</v>
       </c>
       <c r="F35">
-        <v>-2.820946734667573</v>
+        <v>-3.195097861538471</v>
       </c>
       <c r="G35">
-        <v>-3.940000000000012</v>
+        <v>-4.147825433012684</v>
       </c>
       <c r="H35">
-        <v>-2.251000000000005</v>
+        <v>-4.367721119129016</v>
       </c>
       <c r="I35">
-        <v>-1.900003378632946</v>
+        <v>-2.325859714807095</v>
       </c>
       <c r="J35">
-        <v>-1.660000000000011</v>
+        <v>-2.099931310843317</v>
+      </c>
+      <c r="K35">
+        <v>-3.377147207894367</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-8.589686665501588</v>
       </c>
       <c r="C36">
-        <v>-2.919125779602212</v>
+        <v>-11.56390113725315</v>
       </c>
       <c r="D36">
-        <v>4.580874220397788</v>
+        <v>-3.606077355188603</v>
       </c>
       <c r="E36">
-        <v>3.059927485730227</v>
+        <v>-5.222099907692765</v>
       </c>
       <c r="F36">
-        <v>1.940874220397788</v>
+        <v>-6.174827479166979</v>
       </c>
       <c r="G36">
-        <v>3.629874220397795</v>
+        <v>-6.39472316528331</v>
       </c>
       <c r="H36">
-        <v>3.980870841764854</v>
+        <v>-4.352861760961389</v>
       </c>
       <c r="I36">
-        <v>4.220874220397789</v>
+        <v>-4.126933356997611</v>
+      </c>
+      <c r="J36">
+        <v>-5.404149254048662</v>
+      </c>
+      <c r="K36">
+        <v>-5.09111828891804</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-2.974214471751566</v>
       </c>
       <c r="C37">
-        <v>7.5</v>
+        <v>4.983609310312985</v>
       </c>
       <c r="D37">
-        <v>5.979053265332439</v>
+        <v>3.367586757808823</v>
       </c>
       <c r="E37">
-        <v>4.859999999999999</v>
+        <v>2.41485918633461</v>
       </c>
       <c r="F37">
-        <v>6.549000000000007</v>
+        <v>2.194963500218279</v>
       </c>
       <c r="G37">
-        <v>6.899996621367066</v>
+        <v>4.2368249045402</v>
       </c>
       <c r="H37">
-        <v>7.140000000000001</v>
+        <v>4.462753308503977</v>
+      </c>
+      <c r="I37">
+        <v>3.185537411452927</v>
+      </c>
+      <c r="J37">
+        <v>3.498568376583549</v>
+      </c>
+      <c r="K37">
+        <v>2.99615326272577</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>7.957823782064551</v>
       </c>
       <c r="C38">
-        <v>-1.520946734667561</v>
+        <v>6.341801229560389</v>
       </c>
       <c r="D38">
-        <v>-2.64</v>
+        <v>5.389073658086176</v>
       </c>
       <c r="E38">
-        <v>-0.9509999999999932</v>
+        <v>5.169177971969845</v>
       </c>
       <c r="F38">
-        <v>-0.6000033786329337</v>
+        <v>7.211039376291765</v>
       </c>
       <c r="G38">
-        <v>-0.3599999999999992</v>
+        <v>7.436967780255543</v>
+      </c>
+      <c r="H38">
+        <v>6.159751883204493</v>
+      </c>
+      <c r="I38">
+        <v>6.472782848335115</v>
+      </c>
+      <c r="J38">
+        <v>5.970367734477335</v>
+      </c>
+      <c r="K38">
+        <v>6.62200098188616</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-1.616022552504162</v>
       </c>
       <c r="C39">
-        <v>-1.119053265332439</v>
+        <v>-2.568750123978375</v>
       </c>
       <c r="D39">
-        <v>0.5699467346675675</v>
+        <v>-2.788645810094706</v>
       </c>
       <c r="E39">
-        <v>0.920943356034627</v>
+        <v>-0.7467844057727859</v>
       </c>
       <c r="F39">
-        <v>1.160946734667561</v>
+        <v>-0.5208560018090078</v>
+      </c>
+      <c r="G39">
+        <v>-1.798071898860058</v>
+      </c>
+      <c r="H39">
+        <v>-1.485040933729436</v>
+      </c>
+      <c r="I39">
+        <v>-1.987456047587215</v>
+      </c>
+      <c r="J39">
+        <v>-1.335822800178391</v>
+      </c>
+      <c r="K39">
+        <v>-1.528722419220372</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-0.9527275714742132</v>
       </c>
       <c r="C40">
-        <v>1.689000000000007</v>
+        <v>-1.172623257590544</v>
       </c>
       <c r="D40">
-        <v>2.039996621367067</v>
+        <v>0.8692381467313761</v>
       </c>
       <c r="E40">
-        <v>2.280000000000001</v>
+        <v>1.095166550695154</v>
+      </c>
+      <c r="F40">
+        <v>-0.1820493463558961</v>
+      </c>
+      <c r="G40">
+        <v>0.1309816187747259</v>
+      </c>
+      <c r="H40">
+        <v>-0.3714334950830534</v>
+      </c>
+      <c r="I40">
+        <v>0.2801997523257711</v>
+      </c>
+      <c r="J40">
+        <v>0.0873001332837901</v>
+      </c>
+      <c r="K40">
+        <v>-0.4234413153011048</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.2198956861163308</v>
       </c>
       <c r="C41">
-        <v>0.3509966213670595</v>
+        <v>1.821965718205589</v>
       </c>
       <c r="D41">
-        <v>0.590999999999994</v>
+        <v>2.047894122169367</v>
+      </c>
+      <c r="E41">
+        <v>0.7706782251183171</v>
+      </c>
+      <c r="F41">
+        <v>1.083709190248939</v>
+      </c>
+      <c r="G41">
+        <v>0.5812940763911598</v>
+      </c>
+      <c r="H41">
+        <v>1.232927323799984</v>
+      </c>
+      <c r="I41">
+        <v>1.040027704758003</v>
+      </c>
+      <c r="J41">
+        <v>0.5292862561731084</v>
+      </c>
+      <c r="K41">
+        <v>0.7346869887703065</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2.04186140432192</v>
       </c>
       <c r="C42">
-        <v>0.2400033786329345</v>
+        <v>2.267789808285698</v>
+      </c>
+      <c r="D42">
+        <v>0.9905739112346479</v>
+      </c>
+      <c r="E42">
+        <v>1.30360487636527</v>
+      </c>
+      <c r="F42">
+        <v>0.8011897625074906</v>
+      </c>
+      <c r="G42">
+        <v>1.452823009916315</v>
+      </c>
+      <c r="H42">
+        <v>1.259923390874334</v>
+      </c>
+      <c r="I42">
+        <v>0.7491819422894392</v>
+      </c>
+      <c r="J42">
+        <v>0.9545826748866373</v>
+      </c>
+      <c r="K42">
+        <v>0.5480967329233264</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2259284039637781</v>
+      </c>
+      <c r="C43">
+        <v>-1.051287493087272</v>
+      </c>
+      <c r="D43">
+        <v>-0.7382565279566502</v>
+      </c>
+      <c r="E43">
+        <v>-1.240671641814429</v>
+      </c>
+      <c r="F43">
+        <v>-0.589038394405605</v>
+      </c>
+      <c r="G43">
+        <v>-0.781938013447586</v>
+      </c>
+      <c r="H43">
+        <v>-1.292679462032481</v>
+      </c>
+      <c r="I43">
+        <v>-1.087278729435283</v>
+      </c>
+      <c r="J43">
+        <v>-1.493764671398594</v>
+      </c>
+      <c r="K43">
+        <v>-1.058660514130252</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-1.27721589705105</v>
+      </c>
+      <c r="C44">
+        <v>-0.9641849319204283</v>
+      </c>
+      <c r="D44">
+        <v>-1.466600045778208</v>
+      </c>
+      <c r="E44">
+        <v>-0.8149667983693831</v>
+      </c>
+      <c r="F44">
+        <v>-1.007866417411364</v>
+      </c>
+      <c r="G44">
+        <v>-1.518607865996259</v>
+      </c>
+      <c r="H44">
+        <v>-1.313207133399061</v>
+      </c>
+      <c r="I44">
+        <v>-1.719693075362372</v>
+      </c>
+      <c r="J44">
+        <v>-1.28458891809403</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.313030965130622</v>
+      </c>
+      <c r="C45">
+        <v>-0.1893841487271573</v>
+      </c>
+      <c r="D45">
+        <v>0.4622490986816672</v>
+      </c>
+      <c r="E45">
+        <v>0.2693494796396863</v>
+      </c>
+      <c r="F45">
+        <v>-0.2413919689452087</v>
+      </c>
+      <c r="G45">
+        <v>-0.0359912363480106</v>
+      </c>
+      <c r="H45">
+        <v>-0.4424771783113215</v>
+      </c>
+      <c r="I45">
+        <v>-0.007373021042980099</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.5024151138577793</v>
+      </c>
+      <c r="C46">
+        <v>0.1492181335510452</v>
+      </c>
+      <c r="D46">
+        <v>-0.04368148549093578</v>
+      </c>
+      <c r="E46">
+        <v>-0.5544229340758307</v>
+      </c>
+      <c r="F46">
+        <v>-0.3490222014786326</v>
+      </c>
+      <c r="G46">
+        <v>-0.7555081434419435</v>
+      </c>
+      <c r="H46">
+        <v>-0.3204039861736021</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.6516332474088244</v>
+      </c>
+      <c r="C47">
+        <v>0.4587336283668435</v>
+      </c>
+      <c r="D47">
+        <v>-0.05200782021805142</v>
+      </c>
+      <c r="E47">
+        <v>0.1533929123791467</v>
+      </c>
+      <c r="F47">
+        <v>-0.2530930295841642</v>
+      </c>
+      <c r="G47">
+        <v>0.1820111276841772</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.192899619041981</v>
+      </c>
+      <c r="C48">
+        <v>-0.7036410676268758</v>
+      </c>
+      <c r="D48">
+        <v>-0.4982403350296778</v>
+      </c>
+      <c r="E48">
+        <v>-0.9047262769929887</v>
+      </c>
+      <c r="F48">
+        <v>-0.4696221197246473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.5107414485848949</v>
+      </c>
+      <c r="C49">
+        <v>-0.3053407159876969</v>
+      </c>
+      <c r="D49">
+        <v>-0.7118266579510077</v>
+      </c>
+      <c r="E49">
+        <v>-0.2767225006826664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.2054007325971981</v>
+      </c>
+      <c r="C50">
+        <v>-0.2010852093661128</v>
+      </c>
+      <c r="D50">
+        <v>0.2340189479022286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-0.4064859419633109</v>
+      </c>
+      <c r="C51">
+        <v>0.0286182153050305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.4351041572683414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.8036082360892891</v>
       </c>
-      <c r="G2">
-        <v>0.07775885004811295</v>
-      </c>
-      <c r="H2">
-        <v>-0.06033597070255325</v>
-      </c>
-      <c r="I2">
-        <v>1.423579478731483</v>
-      </c>
-      <c r="J2">
-        <v>0.7149590560906915</v>
-      </c>
-      <c r="K2">
-        <v>1.36081349821724</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.4905055173959738</v>
       </c>
-      <c r="I3">
-        <v>1.136359959522522</v>
-      </c>
-      <c r="J3">
-        <v>-0.2852343406515047</v>
-      </c>
-      <c r="K3">
-        <v>-0.0852343406515047</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.431899226768266</v>
       </c>
-      <c r="G4">
-        <v>1.077753668894815</v>
-      </c>
-      <c r="H4">
-        <v>-0.3438406312792125</v>
-      </c>
-      <c r="I4">
-        <v>-0.1438406312792125</v>
-      </c>
-      <c r="J4">
-        <v>-0.3787599984908638</v>
-      </c>
-      <c r="K4">
-        <v>-0.1438406312792125</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-0.1734590192165512</v>
       </c>
-      <c r="I5">
-        <v>0.06146034799510008</v>
-      </c>
-      <c r="J5">
-        <v>1.058708744784923</v>
-      </c>
-      <c r="K5">
-        <v>-0.3525765312796664</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-1.519279647899921</v>
       </c>
-      <c r="G6">
-        <v>-1.28436028068827</v>
-      </c>
-      <c r="H6">
-        <v>-0.2871118838984472</v>
-      </c>
-      <c r="I6">
-        <v>-1.698397159963037</v>
-      </c>
-      <c r="J6">
-        <v>-0.6831138816540374</v>
-      </c>
-      <c r="K6">
-        <v>-1.28436028068827</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-0.6203479011397945</v>
       </c>
-      <c r="I7">
-        <v>-1.221594300174027</v>
-      </c>
-      <c r="J7">
-        <v>-0.9215943001740271</v>
-      </c>
-      <c r="K7">
-        <v>-1.121594300174027</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.6012463990342326</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8">
-        <v>0.1</v>
-      </c>
-      <c r="J8">
-        <v>0.7403290421223629</v>
-      </c>
-      <c r="K8">
-        <v>-0.4</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.7403290421223629</v>
       </c>
-      <c r="I9">
-        <v>-0.4</v>
-      </c>
-      <c r="J9">
-        <v>-0.2</v>
-      </c>
-      <c r="K9">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>1.15436592139713</v>
       </c>
-      <c r="G10">
-        <v>0.01403687927476649</v>
-      </c>
-      <c r="H10">
-        <v>0.2140368792747666</v>
-      </c>
-      <c r="I10">
-        <v>0.7140368792747666</v>
-      </c>
-      <c r="J10">
-        <v>1.110394189548828</v>
-      </c>
-      <c r="K10">
-        <v>0.1266847408016787</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.6963573102740611</v>
       </c>
-      <c r="I11">
-        <v>-0.2873521384730878</v>
-      </c>
-      <c r="J11">
-        <v>0.2947037738205665</v>
-      </c>
-      <c r="K11">
-        <v>-0.3267133658511682</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.5963573102740611</v>
       </c>
-      <c r="G12">
-        <v>-0.3873521384730879</v>
-      </c>
-      <c r="H12">
-        <v>0.1947037738205665</v>
-      </c>
-      <c r="I12">
-        <v>-0.4267133658511682</v>
-      </c>
-      <c r="J12">
-        <v>-0.4028875639548886</v>
-      </c>
-      <c r="K12">
-        <v>-0.3036537137213145</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>0.09711243604511144</v>
       </c>
-      <c r="I13">
-        <v>0.1963462862786856</v>
-      </c>
-      <c r="J13">
-        <v>0.6673027473217872</v>
-      </c>
-      <c r="K13">
-        <v>0.2225640081793643</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.6028875639548886</v>
       </c>
-      <c r="G14">
-        <v>-0.5036537137213145</v>
-      </c>
-      <c r="H14">
-        <v>-0.03269725267821288</v>
-      </c>
-      <c r="I14">
-        <v>-0.4774359918206358</v>
-      </c>
-      <c r="J14">
-        <v>-0.3228511177569345</v>
-      </c>
-      <c r="K14">
-        <v>-0.321075791701611</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>0.2645010207161533</v>
       </c>
-      <c r="I15">
-        <v>0.2662763467714768</v>
-      </c>
-      <c r="J15">
-        <v>0.4926872600437235</v>
-      </c>
-      <c r="K15">
-        <v>0.2895366769069482</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>0.3038622480942337</v>
       </c>
-      <c r="G16">
-        <v>0.3056375741495572</v>
-      </c>
-      <c r="H16">
-        <v>0.5320484874218039</v>
-      </c>
-      <c r="I16">
-        <v>0.3288979042850286</v>
-      </c>
-      <c r="J16">
-        <v>0.5705614426731813</v>
-      </c>
-      <c r="K16">
-        <v>0.4240654252790535</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>0.4475017905433276</v>
       </c>
-      <c r="I17">
-        <v>0.3010057731491998</v>
-      </c>
-      <c r="J17">
-        <v>-0.3343337391787031</v>
-      </c>
-      <c r="K17">
-        <v>0.7389857269212712</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.5683893183157664</v>
       </c>
-      <c r="K18">
-        <v>0.1342365866857307</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.4120291181967417</v>
       </c>
-      <c r="I19">
-        <v>-0.02212361343329405</v>
-      </c>
-      <c r="J19">
-        <v>0.115754916444132</v>
-      </c>
-      <c r="K19">
-        <v>0.7210757917016111</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.18201347714583</v>
       </c>
-      <c r="K20">
-        <v>-0.8021845384338604</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.0868459561518051</v>
       </c>
-      <c r="I21">
-        <v>-0.8973520594278852</v>
-      </c>
-      <c r="J21">
-        <v>0.2085461372110728</v>
-      </c>
-      <c r="K21">
-        <v>-0.1297279148317614</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.1540333667503972</v>
       </c>
-      <c r="K22">
-        <v>3.064667986800043</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.009654680045571244</v>
       </c>
-      <c r="J23">
-        <v>3.209046673504869</v>
-      </c>
-      <c r="K23">
-        <v>10.92611343910681</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.4244980515844645</v>
       </c>
-      <c r="I24">
-        <v>3.643199405134905</v>
-      </c>
-      <c r="J24">
-        <v>11.36026617073684</v>
-      </c>
-      <c r="K24">
-        <v>-10.37282494035166</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>3.029792626865739</v>
       </c>
-      <c r="K26">
-        <v>5.056794673020033</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>3.545594611286049</v>
       </c>
-      <c r="J27">
-        <v>5.572596657440343</v>
-      </c>
-      <c r="K27">
-        <v>-3.017090008061245</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>4.529792626865739</v>
       </c>
-      <c r="I28">
-        <v>6.556794673020033</v>
-      </c>
-      <c r="J28">
-        <v>-2.032891992481555</v>
-      </c>
-      <c r="K28">
-        <v>-5.007106464233121</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>2.183093173235306</v>
       </c>
-      <c r="K30">
-        <v>0.567070620731144</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>1.76941867138187</v>
       </c>
-      <c r="J31">
-        <v>0.1533961188777085</v>
-      </c>
-      <c r="K31">
-        <v>-0.7993314525965047</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-1.44928268216857</v>
       </c>
-      <c r="I32">
-        <v>-3.065305234672732</v>
-      </c>
-      <c r="J32">
-        <v>-4.018032806146945</v>
-      </c>
-      <c r="K32">
-        <v>-4.237928492263277</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>11.81995725754521</v>
       </c>
-      <c r="K34">
-        <v>12.04588566150899</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>-2.325859714807095</v>
       </c>
-      <c r="J35">
-        <v>-2.099931310843317</v>
-      </c>
-      <c r="K35">
-        <v>-3.377147207894367</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-4.352861760961389</v>
       </c>
-      <c r="I36">
-        <v>-4.126933356997611</v>
-      </c>
-      <c r="J36">
-        <v>-5.404149254048662</v>
-      </c>
-      <c r="K36">
-        <v>-5.09111828891804</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>5.970367734477335</v>
       </c>
-      <c r="K38">
-        <v>6.62200098188616</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>-1.987456047587215</v>
       </c>
-      <c r="J39">
-        <v>-1.335822800178391</v>
-      </c>
-      <c r="K39">
-        <v>-1.528722419220372</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>-0.3714334950830534</v>
       </c>
-      <c r="I40">
-        <v>0.2801997523257711</v>
-      </c>
-      <c r="J40">
-        <v>0.0873001332837901</v>
-      </c>
-      <c r="K40">
-        <v>-0.4234413153011048</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.9545826748866373</v>
       </c>
-      <c r="K42">
-        <v>0.5480967329233264</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-1.087278729435283</v>
       </c>
-      <c r="J43">
-        <v>-1.493764671398594</v>
-      </c>
-      <c r="K43">
-        <v>-1.058660514130252</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-1.313207133399061</v>
-      </c>
-      <c r="I44">
-        <v>-1.719693075362372</v>
-      </c>
-      <c r="J44">
-        <v>-1.28458891809403</v>
       </c>
     </row>
     <row r="45" spans="1:11">
